--- a/results/results_formatted/evaluation_lineFollowing20_run1_formatted.xlsx
+++ b/results/results_formatted/evaluation_lineFollowing20_run1_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamza\Desktop\bro usb n papa\results (line following)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (line following)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FC3D7-4C10-43B1-ABB0-D31F6C682FD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_lineFollowing20_run1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,29 +948,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +1011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +1043,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1084,7 @@
         <v>68.58</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1125,7 @@
         <v>69.319999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1166,7 @@
         <v>72.650000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1207,7 @@
         <v>58.25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1248,7 @@
         <v>64.58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1289,7 @@
         <v>60.05</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1330,7 @@
         <v>53.82</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1371,7 @@
         <v>42.84</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1412,7 @@
         <v>58.18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1453,7 @@
         <v>34.130000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1494,7 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1535,7 @@
         <v>33.39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1576,7 @@
         <v>41.05</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1617,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1658,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1699,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1781,7 @@
         <v>21.06</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1822,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1863,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +1904,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1936,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1968,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +2000,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +2032,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2064,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2096,7 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2128,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2160,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2201,7 @@
         <v>74.31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2191,7 +2242,7 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2232,7 +2283,7 @@
         <v>54.21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -2273,7 +2324,7 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -2314,7 +2365,7 @@
         <v>69.92</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2447,7 @@
         <v>64.72</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2488,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -2478,7 +2529,7 @@
         <v>49.91</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -2519,7 +2570,7 @@
         <v>16.87</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2611,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -2601,7 +2652,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2693,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2674,7 +2725,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -2715,7 +2766,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +2807,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2848,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +2880,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -2870,7 +2921,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2953,7 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2985,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +3017,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -3007,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -3048,7 +3099,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3131,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -3121,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -3162,7 +3213,7 @@
         <v>60.68</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -3203,7 +3254,7 @@
         <v>79.06</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -3244,7 +3295,7 @@
         <v>66.13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3327,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +3359,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
@@ -3349,7 +3400,7 @@
         <v>57.75</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
@@ -3390,7 +3441,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
@@ -3431,7 +3482,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -3472,7 +3523,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -3513,7 +3564,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -3554,7 +3605,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -3595,7 +3646,7 @@
         <v>58.19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -3636,7 +3687,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -3677,7 +3728,7 @@
         <v>64.94</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -3718,7 +3769,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -3759,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -3800,7 +3851,7 @@
         <v>24.27</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
@@ -3841,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3924,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -3914,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3955,7 +4006,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -3987,7 +4038,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4079,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +4111,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -4101,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -4142,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4225,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4257,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -4247,7 +4298,7 @@
         <v>65.66</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -4288,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4371,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -4361,7 +4412,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4444,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
@@ -4434,7 +4485,7 @@
         <v>69.98</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -4475,7 +4526,7 @@
         <v>67.52</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
@@ -4516,7 +4567,7 @@
         <v>38.85</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -4557,7 +4608,7 @@
         <v>56.19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +4640,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -4630,7 +4681,7 @@
         <v>60.92</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
@@ -4671,7 +4722,7 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -4712,7 +4763,7 @@
         <v>57.66</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
@@ -4753,7 +4804,7 @@
         <v>40.47</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
@@ -4794,7 +4845,7 @@
         <v>29.47</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
@@ -4835,7 +4886,7 @@
         <v>64.16</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -4876,7 +4927,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -4917,7 +4968,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -4958,7 +5009,7 @@
         <v>15.59</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
@@ -5040,7 +5091,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -5081,7 +5132,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -5122,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -5163,7 +5214,7 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
@@ -5204,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -5236,7 +5287,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5319,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -5300,7 +5351,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>0</v>
       </c>
@@ -5332,7 +5383,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -5364,7 +5415,7 @@
         <v>28.48</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -5396,7 +5447,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -5428,7 +5479,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -5469,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -5510,7 +5561,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -5551,7 +5602,7 @@
         <v>69.23</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -5592,7 +5643,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -5633,7 +5684,7 @@
         <v>68.62</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -5674,7 +5725,7 @@
         <v>66.31</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +5757,7 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -5747,7 +5798,7 @@
         <v>61.39</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -5788,7 +5839,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
@@ -5829,7 +5880,7 @@
         <v>39.24</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
@@ -5870,7 +5921,7 @@
         <v>41.57</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
@@ -5911,7 +5962,7 @@
         <v>37.090000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -5952,7 +6003,7 @@
         <v>22.34</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -5993,7 +6044,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
@@ -6034,7 +6085,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -6075,7 +6126,7 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -6116,7 +6167,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -6127,7 +6178,7 @@
         <v>401.45</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
@@ -6138,7 +6189,7 @@
         <v>312.8</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>10</v>
       </c>
@@ -6149,7 +6200,7 @@
         <v>369.52</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -6160,7 +6211,7 @@
         <v>325.39999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>10</v>
       </c>
@@ -6171,7 +6222,7 @@
         <v>373.07</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -6182,7 +6233,7 @@
         <v>277.27999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -6193,7 +6244,7 @@
         <v>403.7</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -6202,6 +6253,54 @@
       </c>
       <c r="C142">
         <v>327.19</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="3">
+        <f>COUNTIF(A2:A134,"transportation")</f>
+        <v>100</v>
+      </c>
+      <c r="G146" s="3">
+        <f>AVERAGEIF(A2:A134,"transportation",F2:F134)</f>
+        <v>165.55759999999998</v>
+      </c>
+      <c r="H146" s="3">
+        <f>AVERAGEIF(A2:A134,"transportation",H2:H134)</f>
+        <v>91.496600000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E147" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="3">
+        <f>COUNTIF(A2:A134,"charging")</f>
+        <v>33</v>
+      </c>
+      <c r="G147" s="3">
+        <f>AVERAGEIF(A2:A134,"charging",F2:F134)</f>
+        <v>51.061515151515145</v>
+      </c>
+      <c r="H147" s="3">
+        <f>AVERAGEIF(A2:A134,"charging",H2:H134)</f>
+        <v>0.30454545454545451</v>
       </c>
     </row>
   </sheetData>
